--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.0178789217252</v>
+        <v>133.9646796666667</v>
       </c>
       <c r="H2">
-        <v>16.0178789217252</v>
+        <v>401.894039</v>
       </c>
       <c r="I2">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517746</v>
       </c>
       <c r="J2">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517745</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.49044135592188</v>
+        <v>3.090355666666666</v>
       </c>
       <c r="N2">
-        <v>2.49044135592188</v>
+        <v>9.271066999999999</v>
       </c>
       <c r="O2">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="P2">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="Q2">
-        <v>39.89158810081381</v>
+        <v>413.9985069410681</v>
       </c>
       <c r="R2">
-        <v>39.89158810081381</v>
+        <v>3725.986562469613</v>
       </c>
       <c r="S2">
-        <v>0.002646341887217595</v>
+        <v>0.01936628860552796</v>
       </c>
       <c r="T2">
-        <v>0.002646341887217595</v>
+        <v>0.01936628860552795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.0178789217252</v>
+        <v>133.9646796666667</v>
       </c>
       <c r="H3">
-        <v>16.0178789217252</v>
+        <v>401.894039</v>
       </c>
       <c r="I3">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517746</v>
       </c>
       <c r="J3">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.8326743963801</v>
+        <v>25.17096033333333</v>
       </c>
       <c r="N3">
-        <v>24.8326743963801</v>
+        <v>75.51288099999999</v>
       </c>
       <c r="O3">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338453</v>
       </c>
       <c r="P3">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338454</v>
       </c>
       <c r="Q3">
-        <v>397.7667717838418</v>
+        <v>3372.019637957373</v>
       </c>
       <c r="R3">
-        <v>397.7667717838418</v>
+        <v>30348.17674161636</v>
       </c>
       <c r="S3">
-        <v>0.02638718886936036</v>
+        <v>0.1577385048431738</v>
       </c>
       <c r="T3">
-        <v>0.02638718886936036</v>
+        <v>0.1577385048431737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.0178789217252</v>
+        <v>133.9646796666667</v>
       </c>
       <c r="H4">
-        <v>16.0178789217252</v>
+        <v>401.894039</v>
       </c>
       <c r="I4">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517746</v>
       </c>
       <c r="J4">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517745</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2182004575563</v>
+        <v>16.34167533333333</v>
       </c>
       <c r="N4">
-        <v>15.2182004575563</v>
+        <v>49.025026</v>
       </c>
       <c r="O4">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="P4">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="Q4">
-        <v>243.7632923356798</v>
+        <v>2189.207301246668</v>
       </c>
       <c r="R4">
-        <v>243.7632923356798</v>
+        <v>19702.86571122001</v>
       </c>
       <c r="S4">
-        <v>0.0161708530992482</v>
+        <v>0.1024081481030729</v>
       </c>
       <c r="T4">
-        <v>0.0161708530992482</v>
+        <v>0.1024081481030729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>276.410742670589</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H5">
-        <v>276.410742670589</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I5">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="J5">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.49044135592188</v>
+        <v>3.090355666666666</v>
       </c>
       <c r="N5">
-        <v>2.49044135592188</v>
+        <v>9.271066999999999</v>
       </c>
       <c r="O5">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="P5">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="Q5">
-        <v>688.3847447679155</v>
+        <v>854.2821153843352</v>
       </c>
       <c r="R5">
-        <v>688.3847447679155</v>
+        <v>7688.539038459017</v>
       </c>
       <c r="S5">
-        <v>0.04566630388334338</v>
+        <v>0.03996215860611549</v>
       </c>
       <c r="T5">
-        <v>0.04566630388334338</v>
+        <v>0.03996215860611549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>276.410742670589</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H6">
-        <v>276.410742670589</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I6">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="J6">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.8326743963801</v>
+        <v>25.17096033333333</v>
       </c>
       <c r="N6">
-        <v>24.8326743963801</v>
+        <v>75.51288099999999</v>
       </c>
       <c r="O6">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338453</v>
       </c>
       <c r="P6">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338454</v>
       </c>
       <c r="Q6">
-        <v>6864.017972400344</v>
+        <v>6958.131541865199</v>
       </c>
       <c r="R6">
-        <v>6864.017972400344</v>
+        <v>62623.1838767868</v>
       </c>
       <c r="S6">
-        <v>0.4553475842844885</v>
+        <v>0.3254919554919325</v>
       </c>
       <c r="T6">
-        <v>0.4553475842844885</v>
+        <v>0.3254919554919326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>276.410742670589</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H7">
-        <v>276.410742670589</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I7">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="J7">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2182004575563</v>
+        <v>16.34167533333333</v>
       </c>
       <c r="N7">
-        <v>15.2182004575563</v>
+        <v>49.025026</v>
       </c>
       <c r="O7">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="P7">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="Q7">
-        <v>4206.474090583034</v>
+        <v>4517.409152371785</v>
       </c>
       <c r="R7">
-        <v>4206.474090583034</v>
+        <v>40656.68237134608</v>
       </c>
       <c r="S7">
-        <v>0.2790505245184343</v>
+        <v>0.2113182727167149</v>
       </c>
       <c r="T7">
-        <v>0.2790505245184343</v>
+        <v>0.2113182727167149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.9148636062069</v>
+        <v>68.87942233333334</v>
       </c>
       <c r="H8">
-        <v>61.9148636062069</v>
+        <v>206.638267</v>
       </c>
       <c r="I8">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="J8">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.49044135592188</v>
+        <v>3.090355666666666</v>
       </c>
       <c r="N8">
-        <v>2.49044135592188</v>
+        <v>9.271066999999999</v>
       </c>
       <c r="O8">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="P8">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="Q8">
-        <v>154.1953368711602</v>
+        <v>212.8619131245432</v>
       </c>
       <c r="R8">
-        <v>154.1953368711602</v>
+        <v>1915.757218120889</v>
       </c>
       <c r="S8">
-        <v>0.01022906327380469</v>
+        <v>0.009957391569244307</v>
       </c>
       <c r="T8">
-        <v>0.01022906327380469</v>
+        <v>0.009957391569244306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.9148636062069</v>
+        <v>68.87942233333334</v>
       </c>
       <c r="H9">
-        <v>61.9148636062069</v>
+        <v>206.638267</v>
       </c>
       <c r="I9">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="J9">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.8326743963801</v>
+        <v>25.17096033333333</v>
       </c>
       <c r="N9">
-        <v>24.8326743963801</v>
+        <v>75.51288099999999</v>
       </c>
       <c r="O9">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338453</v>
       </c>
       <c r="P9">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338454</v>
       </c>
       <c r="Q9">
-        <v>1537.51164822922</v>
+        <v>1733.761207335247</v>
       </c>
       <c r="R9">
-        <v>1537.51164822922</v>
+        <v>15603.85086601723</v>
       </c>
       <c r="S9">
-        <v>0.1019959763575054</v>
+        <v>0.08110299759873903</v>
       </c>
       <c r="T9">
-        <v>0.1019959763575054</v>
+        <v>0.08110299759873903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.9148636062069</v>
+        <v>68.87942233333334</v>
       </c>
       <c r="H10">
-        <v>61.9148636062069</v>
+        <v>206.638267</v>
       </c>
       <c r="I10">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="J10">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2182004575563</v>
+        <v>16.34167533333333</v>
       </c>
       <c r="N10">
-        <v>15.2182004575563</v>
+        <v>49.025026</v>
       </c>
       <c r="O10">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="P10">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="Q10">
-        <v>942.2328056615138</v>
+        <v>1125.605156918882</v>
       </c>
       <c r="R10">
-        <v>942.2328056615138</v>
+        <v>10130.44641226994</v>
       </c>
       <c r="S10">
-        <v>0.06250616382659761</v>
+        <v>0.05265428246547921</v>
       </c>
       <c r="T10">
-        <v>0.06250616382659761</v>
+        <v>0.05265428246547921</v>
       </c>
     </row>
   </sheetData>
